--- a/hdmi_hdbt_test_suite/TestCaseManagement.xlsx
+++ b/hdmi_hdbt_test_suite/TestCaseManagement.xlsx
@@ -71,12 +71,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -376,20 +377,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="1" width="7.5546875"/>
-    <col customWidth="1" max="2" min="2" style="1" width="43.21875"/>
-    <col customWidth="1" max="3" min="3" style="1" width="98.109375"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="1" width="11.6640625"/>
-    <col customWidth="1" max="9" min="8" style="1" width="8.88671875"/>
-    <col customWidth="1" max="11" min="11" style="1" width="8.88671875"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="4" width="7.5546875"/>
+    <col customWidth="1" max="2" min="2" style="4" width="43.21875"/>
+    <col customWidth="1" max="3" min="3" style="4" width="98.109375"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="4" width="11.6640625"/>
+    <col customWidth="1" max="11" min="8" style="4" width="8.88671875"/>
+    <col customWidth="1" max="13" min="13" style="4" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -430,842 +431,938 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>4.2.12</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
           <t>4.2.11</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>4.2.11</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>4.2.10</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HDMI Protocal Test</t>
+          <t>HDMI Scalemode_bypass RGB</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>VideoTestSuite.py -t all -s all --skip pattern</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>PASS</t>
+          <t>VideoTestSuite.py -t all -s bypass --skip protocal -c RGB</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HDMI Scalemode:bypass</t>
+          <t>HDMI Scalemode_bypass YCBCr444</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>VideoTestSuite.py -t all -s bypass --skip protocal</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
+          <t>VideoTestSuite.py -t all -s bypass --skip protocal -c YCbCr444</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>003</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HDMI Scalemode:auto</t>
+          <t>HDMI Scalemode_auto</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>VideoTestSuite.py -t 2160p60 -s auto --skip protocal</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+          <t>VideoTestSuite.py -t 2160p30 -s auto --skip protocal -c RGB --outcolor RGB</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HDMI Scalemode_manual</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>VideoTestSuite.py -t 2160p30 -s manual --skip protocal --outcolor YCbCr444</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>005</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HDMI ColorSpace_RGB-RGB</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>VideoTestSuite.py -t 1080p60 -s 2160p30 -c RGB --outcolor RGB --skip protocal</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>006</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HDMI ColorSpace_YCbCr444-RGB</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>VideoTestSuite.py -t 2160p30 -s 1080p60 -c YCbCr444 --outcolor RGB --skip protocal</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>007</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HDMI ColorSpace_YCbCr422-RGB</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>VideoTestSuite.py -t 1080p60 -s 2160p30 -c YCbCr422 --outcolor RGB --skip protocal</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>HDMI ColorSpace_YCbCr420-RGB</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>VideoTestSuite.py -t 2160p30 -s 1080p60 -c YCbCr420 --outcolor RGB --skip protocal</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>009</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>HDMI ColorSpace_YCbCr444-YCbCr444</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>VideoTestSuite.py -t 1080p60 -s 2160p30 -c YCbCr444 --outcolor YCbCr444 --skip protocal</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HDMI ColorSpace_YCbCr422-YCbCr444</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>VideoTestSuite.py -t 2160p30 -s 1080p60 -c YCbCr422 --outcolor YCbCr444 --skip protocal</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HDMI ColorSpace_YCbCr420-YCbCr444</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>VideoTestSuite.py -t 1080p60 -s 2160p30 -c YCbCr420 --outcolor YCbCr444 --skip protocal</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>HDMI ColorSpace_RGB-YCbCr444</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>VideoTestSuite.py -t 2160p30 -s 1080p60 -c RGB --outcolor YCbCr444 --skip protocal</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>013</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>HDMI SCALER HDCP Out Auto_None-None</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>VideoTestSuite.py -t 1080p60 -s 2160p30 --hdcpout None --hdcpin None --skip protocal</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>HDMI Scalemode:manual</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>VideoTestSuite.py -t 2160p30 -s manual --skip protocal</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="E14" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HDMI SCALER HDCP Out Auto_None-1.4</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>VideoTestSuite.py -t 2160p30 -s 1080p60 --hdcpout None --hdcpin 14 --skip protocal</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>HDMI ColorSpace:RGB-RGB</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>VideoTestSuite.py -t 1080p60 -s 2160p30 -c RGB --outcolor RGB --skip protocal</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="E15" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>015</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>HDMI SCALER HDCP Out Auto_None-2.2</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>VideoTestSuite.py -t 1080p60 -s 2160p30 --hdcpout None --hdcpin 22 --skip protocal</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>HDMI ColorSpace:YCbCr444-RGB</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>VideoTestSuite.py -t 2160p30 -s 1080p60 -c YCbCr444 --outcolor RGB --skip protocal</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="E16" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>016</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>HDMI SCALER HDCP Out Auto_1.4-None</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>VideoTestSuite.py -t 2160p30 -s 1080p60 --hdcpout 14 --hdcpin None --skip protocal</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>HDMI ColorSpace:YCbCr422-RGB</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>VideoTestSuite.py -t 1080p60 -s 2160p30 -c YCbCr422 --outcolor RGB --skip protocal</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="E17" s="1" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>HDMI SCALER HDCP Out Auto_1.4-1.4</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>VideoTestSuite.py -t 1080p60 -s 2160p30 --hdcpout 14 --hdcpin 14 --skip protocal</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>HDMI ColorSpace:YCbCr420-RGB</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>VideoTestSuite.py -t 2160p30 -s 1080p60 -c YCbCr420 --outcolor RGB --skip protocal</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="E18" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>018</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>HDMI SCALER HDCP Out Auto_1.4-2.2</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>VideoTestSuite.py -t 2160p30 -s 1080p60 --hdcpout 14 --hdcpin 22 --skip protocal</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>HDMI ColorSpace:YCbCr444-YCbCr444</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>VideoTestSuite.py -t 1080p60 -s 2160p30 -c YCbCr444 --outcolor YCbCr444 --skip protocal</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>HDMI ColorSpace:YCbCr422-YCbCr444</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>VideoTestSuite.py -t 2160p30 -s 1080p60 -c YCbCr422 --outcolor YCbCr444 --skip protocal</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>HDMI ColorSpace:YCbCr420-YCbCr444</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>VideoTestSuite.py -t 1080p60 -s 2160p30 -c YCbCr420 --outcolor YCbCr444 --skip protocal</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>HDMI ColorSpace:RGB-YCbCr444</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>VideoTestSuite.py -t 2160p30 -s 1080p60 -c RGB --outcolor YCbCr444 --skip protocal</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>HDMI SCALER HDCP Out Auto：None-None</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>VideoTestSuite.py -t 1080p60 -s 2160p30 --hdcpout None --hdcpin None --skip protocal</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>HDMI SCALER HDCP Out Auto：None-1.4</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>VideoTestSuite.py -t 2160p30 -s 1080p60 --hdcpout None --hdcpin 14 --skip protocal</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>HDMI SCALER HDCP Out Auto：None-2.2</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>VideoTestSuite.py -t 1080p60 -s 2160p30 --hdcpout None --hdcpin 22 --skip protocal</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>HDMI SCALER HDCP Out Auto：1.4-None</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>VideoTestSuite.py -t 2160p30 -s 1080p60 --hdcpout 14 --hdcpin None --skip protocal</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>HDMI SCALER HDCP Out Auto：1.4-1.4</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>VideoTestSuite.py -t 1080p60 -s 2160p30 --hdcpout 14 --hdcpin 14 --skip protocal</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>HDMI SCALER HDCP Out Auto：1.4-2.2</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>VideoTestSuite.py -t 2160p30 -s 1080p60 --hdcpout 14 --hdcpin 22 --skip protocal</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1278,14 +1375,26 @@
           <t>PASS</t>
         </is>
       </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>019</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out Auto：2.2(0)-None</t>
+          <t>HDMI SCALER HDCP Out Auto_2.2(0)-None</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1293,17 +1402,7 @@
           <t>VideoTestSuite.py -t 1080p60 -s 2160p30 --hdcpout 220 --hdcpin None --skip protocal</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="E20" s="1" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
@@ -1325,17 +1424,29 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out Auto：2.2(0)-1.4</t>
+          <t>HDMI SCALER HDCP Out Auto_2.2(0)-1.4</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1343,12 +1454,7 @@
           <t>VideoTestSuite.py -t 2160p30 -s 1080p60 --hdcpout 220 --hdcpin 14 --skip protocal</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="E21" s="1" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -1378,14 +1484,26 @@
           <t>PASS</t>
         </is>
       </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>021</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out Auto：2.2(0)-2.2</t>
+          <t>HDMI SCALER HDCP Out Auto_2.2(0)-2.2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1393,12 +1511,7 @@
           <t>VideoTestSuite.py -t 1080p60 -s 2160p30 --hdcpout 220 --hdcpin 22 --skip protocal</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="E22" s="1" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -1428,14 +1541,26 @@
           <t>PASS</t>
         </is>
       </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>022</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out Auto：2.2(1)-None</t>
+          <t>HDMI SCALER HDCP Out Auto_2.2(1)-None</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1443,12 +1568,7 @@
           <t>VideoTestSuite.py -t 1080p60 -s 2160p30 --hdcpout 221 --hdcpin None --skip protocal</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="E23" s="1" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
@@ -1475,17 +1595,29 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>023</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out Auto：2.2(1)-1.4</t>
+          <t>HDMI SCALER HDCP Out Auto_2.2(1)-1.4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1493,49 +1625,56 @@
           <t>VideoTestSuite.py -t 2160p30 -s 1080p60 --hdcpout 221 --hdcpin 14 --skip protocal</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="F24" s="4" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H24" s="4" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I24" s="4" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
+      <c r="E24" s="1" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="H24" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I24" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J24" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K24" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>024</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out Auto：2.2(1)-2.2</t>
+          <t>HDMI SCALER HDCP Out Auto_2.2(1)-2.2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,12 +1682,7 @@
           <t>VideoTestSuite.py -t 1080p60 -s 2160p30 --hdcpout 221 --hdcpin 22 --skip protocal</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
+      <c r="E25" s="1" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -1578,14 +1712,26 @@
           <t>PASS</t>
         </is>
       </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>25</v>
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>025</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out HDCP2.2：None-None</t>
+          <t>HDMI SCALER HDCP Out HDCP2.2_None-None</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1593,12 +1739,7 @@
           <t>VideoTestSuite.py -t 1080p60 -s 2160p30 --hdcpdut 22 --hdcpout None --hdcpin None --skip protocal</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="E26" s="1" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
@@ -1625,17 +1766,29 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>26</v>
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>026</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out HDCP2.2：None-1.4</t>
+          <t>HDMI SCALER HDCP Out HDCP2.2_None-1.4</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1643,12 +1796,7 @@
           <t>VideoTestSuite.py -t 2160p30 -s 1080p60 --hdcpdut 22 --hdcpout None --hdcpin 14 --skip protocal</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="E27" s="1" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
@@ -1660,7 +1808,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1675,17 +1823,29 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>027</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out HDCP2.2：None-2.2</t>
+          <t>HDMI SCALER HDCP Out HDCP2.2_None-2.2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1693,19 +1853,14 @@
           <t>VideoTestSuite.py -t 1080p60 -s 2160p30 --hdcpdut 22 --hdcpout None --hdcpin 22 --skip protocal</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
+      <c r="E28" s="1" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1728,14 +1883,26 @@
           <t>PASS</t>
         </is>
       </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>28</v>
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>028</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out HDCP2.2：1.4-None</t>
+          <t>HDMI SCALER HDCP Out HDCP2.2_1.4-None</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1743,19 +1910,14 @@
           <t>VideoTestSuite.py -t 2160p30 -s 1080p60 --hdcpdut 22 --hdcpout 14 --hdcpin None --skip protocal</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
+      <c r="E29" s="1" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1778,14 +1940,26 @@
           <t>FAIL</t>
         </is>
       </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>29</v>
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>029</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out HDCP2.2：1.4-1.4</t>
+          <t>HDMI SCALER HDCP Out HDCP2.2_1.4-1.4</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1793,24 +1967,19 @@
           <t>VideoTestSuite.py -t 1080p60 -s 2160p30 --hdcpdut 22 --hdcpout 14 --hdcpin 14 --skip protocal</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
+      <c r="E30" s="1" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1825,17 +1994,29 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>030</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out HDCP2.2：1.4-2.2</t>
+          <t>HDMI SCALER HDCP Out HDCP2.2_1.4-2.2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1843,12 +2024,7 @@
           <t>VideoTestSuite.py -t 2160p30 -s 1080p60 --hdcpdut 22 --hdcpout 14 --hdcpin 22 --skip protocal</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E31" s="1" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -1860,7 +2036,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1878,14 +2054,26 @@
           <t>PASS</t>
         </is>
       </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>31</v>
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>031</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out HDCP2.2：2.2(0)-None</t>
+          <t>HDMI SCALER HDCP Out HDCP2.2_2.2(0)-None</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1893,12 +2081,7 @@
           <t>VideoTestSuite.py -t 1080p60 -s 2160p30 --hdcpdut 22 --hdcpout 220 --hdcpin None --skip protocal</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E32" s="2" t="inlineStr">
+      <c r="E32" s="1" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
@@ -1925,17 +2108,29 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>32</v>
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>032</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out HDCP2.2：2.2(0)-1.4</t>
+          <t>HDMI SCALER HDCP Out HDCP2.2_2.2(0)-1.4</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1943,24 +2138,19 @@
           <t>VideoTestSuite.py -t 2160p30 -s 1080p60 --hdcpdut 22 --hdcpout 220 --hdcpin 14 --skip protocal</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="inlineStr">
+      <c r="E33" s="1" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1975,17 +2165,29 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>33</v>
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>033</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out HDCP2.2：2.2(0)-2.2</t>
+          <t>HDMI SCALER HDCP Out HDCP2.2_2.2(0)-2.2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1993,12 +2195,7 @@
           <t>VideoTestSuite.py -t 1080p60 -s 2160p30 --hdcpdut 22 --hdcpout 220 --hdcpin 22 --skip protocal</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E34" s="2" t="inlineStr">
+      <c r="E34" s="1" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -2028,14 +2225,26 @@
           <t>PASS</t>
         </is>
       </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>34</v>
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out HDCP2.2：2.2(1)-None</t>
+          <t>HDMI SCALER HDCP Out HDCP2.2_2.2(1)-None</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2043,12 +2252,7 @@
           <t>VideoTestSuite.py -t 1080p60 -s 2160p30 --hdcpdut 22 --hdcpout 221 --hdcpin None --skip protocal</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E35" s="2" t="inlineStr">
+      <c r="E35" s="1" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
@@ -2075,17 +2279,29 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>35</v>
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out HDCP2.2：2.2(1)-1.4</t>
+          <t>HDMI SCALER HDCP Out HDCP2.2_2.2(1)-1.4</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2093,12 +2309,7 @@
           <t>VideoTestSuite.py -t 2160p30 -s 1080p60 --hdcpdut 22 --hdcpout 221 --hdcpin 14 --skip protocal</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
+      <c r="E36" s="1" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
@@ -2110,7 +2321,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2125,17 +2336,29 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>36</v>
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out HDCP2.2：2.2(1)-2.2</t>
+          <t>HDMI SCALER HDCP Out HDCP2.2_2.2(1)-2.2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2143,12 +2366,7 @@
           <t>VideoTestSuite.py -t 1080p60 -s 2160p30 --hdcpdut 22 --hdcpout 221 --hdcpin 22 --skip protocal</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E37" s="2" t="inlineStr">
+      <c r="E37" s="1" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -2178,14 +2396,26 @@
           <t>PASS</t>
         </is>
       </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>37</v>
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>037</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out HDCP1.4：None-None</t>
+          <t>HDMI SCALER HDCP Out HDCP1.4_None-None</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2193,24 +2423,19 @@
           <t>VideoTestSuite.py -t 1080p60 -s 2160p30 --hdcpdut 14 --hdcpout None --hdcpin None --skip protocal</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E38" s="2" t="inlineStr">
+      <c r="E38" s="1" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2225,17 +2450,29 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>38</v>
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>038</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out HDCP1.4：None-1.4</t>
+          <t>HDMI SCALER HDCP Out HDCP1.4_None-1.4</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2243,12 +2480,7 @@
           <t>VideoTestSuite.py -t 2160p30 -s 1080p60 --hdcpdut 14 --hdcpout None --hdcpin 14 --skip protocal</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E39" s="2" t="inlineStr">
+      <c r="E39" s="1" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -2265,7 +2497,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2275,17 +2507,29 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
           <t>FAIL</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>39</v>
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>039</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out HDCP1.4：None-2.2</t>
+          <t>HDMI SCALER HDCP Out HDCP1.4_None-2.2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2293,12 +2537,7 @@
           <t>VideoTestSuite.py -t 1080p60 -s 2160p30 --hdcpdut 14 --hdcpout None --hdcpin 22 --skip protocal</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E40" s="3" t="inlineStr">
+      <c r="E40" s="2" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -2315,7 +2554,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2328,14 +2567,26 @@
           <t>PASS</t>
         </is>
       </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>40</v>
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>040</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out HDCP1.4：1.4-None</t>
+          <t>HDMI SCALER HDCP Out HDCP1.4_1.4-None</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2343,19 +2594,14 @@
           <t>VideoTestSuite.py -t 2160p30 -s 1080p60 --hdcpdut 14 --hdcpout 14 --hdcpin None --skip protocal</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E41" s="2" t="inlineStr">
+      <c r="E41" s="1" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2378,14 +2624,26 @@
           <t>FAIL</t>
         </is>
       </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>41</v>
+      <c r="A42" s="5" t="inlineStr">
+        <is>
+          <t>041</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out HDCP1.4：1.4-1.4</t>
+          <t>HDMI SCALER HDCP Out HDCP1.4_1.4-1.4</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2393,12 +2651,7 @@
           <t>VideoTestSuite.py -t 1080p60 -s 2160p30 --hdcpdut 14 --hdcpout 14 --hdcpin 14 --skip protocal</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E42" s="2" t="inlineStr">
+      <c r="E42" s="1" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -2428,14 +2681,26 @@
           <t>PASS</t>
         </is>
       </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>42</v>
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>042</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out HDCP1.4：1.4-2.2</t>
+          <t>HDMI SCALER HDCP Out HDCP1.4_1.4-2.2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2443,19 +2708,14 @@
           <t>VideoTestSuite.py -t 2160p30 -s 1080p60 --hdcpdut 14 --hdcpout 14 --hdcpin 22 --skip protocal</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E43" s="3" t="inlineStr">
+      <c r="E43" s="2" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2478,14 +2738,26 @@
           <t>PASS</t>
         </is>
       </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>43</v>
+      <c r="A44" s="5" t="inlineStr">
+        <is>
+          <t>043</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out HDCP1.4：2.2(0)-None</t>
+          <t>HDMI SCALER HDCP Out HDCP1.4_2.2(0)-None</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2493,19 +2765,14 @@
           <t>VideoTestSuite.py -t 1080p60 -s 2160p30 --hdcpdut 14 --hdcpout 220 --hdcpin None --skip protocal</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E44" s="2" t="inlineStr">
+      <c r="E44" s="1" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2525,17 +2792,29 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>44</v>
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>044</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out HDCP1.4：2.2(0)-1.4</t>
+          <t>HDMI SCALER HDCP Out HDCP1.4_2.2(0)-1.4</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2543,12 +2822,7 @@
           <t>VideoTestSuite.py -t 2160p30 -s 1080p60 --hdcpdut 14 --hdcpout 220 --hdcpin 14 --skip protocal</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E45" s="2" t="inlineStr">
+      <c r="E45" s="1" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -2560,7 +2834,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2578,14 +2852,26 @@
           <t>PASS</t>
         </is>
       </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>45</v>
+      <c r="A46" s="5" t="inlineStr">
+        <is>
+          <t>045</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out HDCP1.4：2.2(0)-2.2</t>
+          <t>HDMI SCALER HDCP Out HDCP1.4_2.2(0)-2.2</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2593,24 +2879,19 @@
           <t>VideoTestSuite.py -t 1080p60 -s 2160p30 --hdcpdut 14 --hdcpout 220 --hdcpin 22 --skip protocal</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E46" s="3" t="inlineStr">
+      <c r="E46" s="2" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2628,14 +2909,26 @@
           <t>PASS</t>
         </is>
       </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>46</v>
+      <c r="A47" s="5" t="inlineStr">
+        <is>
+          <t>046</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out HDCP1.4：2.2(1)-None</t>
+          <t>HDMI SCALER HDCP Out HDCP1.4_2.2(1)-None</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2643,19 +2936,14 @@
           <t>VideoTestSuite.py -t 1080p60 -s 2160p30 --hdcpdut 14 --hdcpout 221 --hdcpin None --skip protocal</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E47" s="2" t="inlineStr">
+      <c r="E47" s="1" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2675,17 +2963,29 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>47</v>
+      <c r="A48" s="5" t="inlineStr">
+        <is>
+          <t>047</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out HDCP1.4：2.2(1)-1.4</t>
+          <t>HDMI SCALER HDCP Out HDCP1.4_2.2(1)-1.4</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2693,49 +2993,56 @@
           <t>VideoTestSuite.py -t 2160p30 -s 1080p60 --hdcpdut 14 --hdcpout 221 --hdcpin 14 --skip protocal</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E48" s="2" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="F48" s="4" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H48" s="4" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I48" s="4" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
+      <c r="E48" s="1" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="F48" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H48" s="3" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="I48" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J48" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K48" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>48</v>
+      <c r="A49" s="5" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out HDCP1.4：2.2(1)-2.2</t>
+          <t>HDMI SCALER HDCP Out HDCP1.4_2.2(1)-2.2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2743,49 +3050,56 @@
           <t>VideoTestSuite.py -t 1080p60 -s 2160p30 --hdcpdut 14 --hdcpout 221 --hdcpin 22 --skip protocal</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E49" s="3" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="F49" s="4" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H49" s="4" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I49" s="4" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="F49" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H49" s="3" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="I49" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J49" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K49" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>49</v>
+      <c r="A50" s="5" t="inlineStr">
+        <is>
+          <t>049</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out NO-HDCP：None-None</t>
+          <t>HDMI SCALER HDCP Out NO-HDCP_None-None</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2793,24 +3107,19 @@
           <t>VideoTestSuite.py -t 1080p60 -s 2160p30 --hdcpdut None --hdcpout None --hdcpin None --skip protocal</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E50" s="2" t="inlineStr">
+      <c r="E50" s="1" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2828,14 +3137,26 @@
           <t>PASS</t>
         </is>
       </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>50</v>
+      <c r="A51" s="5" t="inlineStr">
+        <is>
+          <t>050</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out NO-HDCP：None-1.4</t>
+          <t>HDMI SCALER HDCP Out NO-HDCP_None-1.4</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2843,24 +3164,19 @@
           <t>VideoTestSuite.py -t 2160p30 -s 1080p60 --hdcpdut None --hdcpout None --hdcpin 14 --skip protocal</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="E51" s="1" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2878,14 +3194,26 @@
           <t>PASS</t>
         </is>
       </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>51</v>
+      <c r="A52" s="5" t="inlineStr">
+        <is>
+          <t>051</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out NO-HDCP：None-2.2</t>
+          <t>HDMI SCALER HDCP Out NO-HDCP_None-2.2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2893,24 +3221,19 @@
           <t>VideoTestSuite.py -t 1080p60 -s 2160p30 --hdcpdut None --hdcpout None --hdcpin 22 --skip protocal</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E52" s="2" t="inlineStr">
+      <c r="E52" s="1" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2928,14 +3251,26 @@
           <t>PASS</t>
         </is>
       </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>52</v>
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t>052</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out NO-HDCP：1.4-None</t>
+          <t>HDMI SCALER HDCP Out NO-HDCP_1.4-None</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2943,24 +3278,19 @@
           <t>VideoTestSuite.py -t 2160p30 -s 1080p60 --hdcpdut None --hdcpout 14 --hdcpin None --skip protocal</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E53" s="2" t="inlineStr">
+      <c r="E53" s="1" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2975,17 +3305,29 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>53</v>
+      <c r="A54" s="5" t="inlineStr">
+        <is>
+          <t>053</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out NO-HDCP：1.4-1.4</t>
+          <t>HDMI SCALER HDCP Out NO-HDCP_1.4-1.4</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2993,19 +3335,14 @@
           <t>VideoTestSuite.py -t 1080p60 -s 2160p30 --hdcpdut None --hdcpout 14 --hdcpin 14 --skip protocal</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E54" s="2" t="inlineStr">
+      <c r="E54" s="1" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3025,17 +3362,29 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>54</v>
+      <c r="A55" s="5" t="inlineStr">
+        <is>
+          <t>054</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out NO-HDCP：1.4-2.2</t>
+          <t>HDMI SCALER HDCP Out NO-HDCP_1.4-2.2</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3043,12 +3392,7 @@
           <t>VideoTestSuite.py -t 2160p30 -s 1080p60 --hdcpdut None --hdcpout 14 --hdcpin 22 --skip protocal</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E55" s="3" t="inlineStr">
+      <c r="E55" s="2" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
@@ -3060,12 +3404,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3075,17 +3419,29 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>55</v>
+      <c r="A56" s="5" t="inlineStr">
+        <is>
+          <t>055</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out NO-HDCP：2.2(0)-None</t>
+          <t>HDMI SCALER HDCP Out NO-HDCP_2.2(0)-None</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3093,19 +3449,14 @@
           <t>VideoTestSuite.py -t 1080p60 -s 2160p30 --hdcpdut None --hdcpout 220 --hdcpin None --skip protocal</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E56" s="2" t="inlineStr">
+      <c r="E56" s="1" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3125,17 +3476,29 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>56</v>
+      <c r="A57" s="5" t="inlineStr">
+        <is>
+          <t>056</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out NO-HDCP：2.2(0)-1.4</t>
+          <t>HDMI SCALER HDCP Out NO-HDCP_2.2(0)-1.4</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3143,12 +3506,7 @@
           <t>VideoTestSuite.py -t 2160p30 -s 1080p60 --hdcpdut None --hdcpout 220 --hdcpin 14 --skip protocal</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E57" s="2" t="inlineStr">
+      <c r="E57" s="1" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
@@ -3175,17 +3533,29 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>57</v>
+      <c r="A58" s="5" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out NO-HDCP：2.2(0)-2.2</t>
+          <t>HDMI SCALER HDCP Out NO-HDCP_2.2(0)-2.2</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3193,12 +3563,7 @@
           <t>VideoTestSuite.py -t 1080p60 -s 2160p30 --hdcpdut None --hdcpout 220 --hdcpin 22 --skip protocal</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E58" s="2" t="inlineStr">
+      <c r="E58" s="1" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
@@ -3225,17 +3590,29 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>58</v>
+      <c r="A59" s="5" t="inlineStr">
+        <is>
+          <t>058</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out NO-HDCP：2.2(1)-None</t>
+          <t>HDMI SCALER HDCP Out NO-HDCP_2.2(1)-None</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3243,12 +3620,7 @@
           <t>VideoTestSuite.py -t 1080p60 -s 2160p30 --hdcpdut None --hdcpout 221 --hdcpin None --skip protocal</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E59" s="2" t="inlineStr">
+      <c r="E59" s="1" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
@@ -3275,17 +3647,29 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>59</v>
+      <c r="A60" s="5" t="inlineStr">
+        <is>
+          <t>059</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out NO-HDCP：2.2(1)-1.4</t>
+          <t>HDMI SCALER HDCP Out NO-HDCP_2.2(1)-1.4</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3293,19 +3677,14 @@
           <t>VideoTestSuite.py -t 2160p30 -s 1080p60 --hdcpdut None --hdcpout 221 --hdcpin 14 --skip protocal</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E60" s="2" t="inlineStr">
+      <c r="E60" s="1" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3315,7 +3694,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3325,17 +3704,29 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>60</v>
+      <c r="A61" s="5" t="inlineStr">
+        <is>
+          <t>060</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>HDMI SCALER HDCP Out NO-HDCP：2.2(1)-2.2</t>
+          <t>HDMI SCALER HDCP Out NO-HDCP_2.2(1)-2.2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3343,19 +3734,14 @@
           <t>VideoTestSuite.py -t 1080p60 -s 2160p30 --hdcpdut None --hdcpout 221 --hdcpin 22 --skip protocal</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E61" s="2" t="inlineStr">
+      <c r="E61" s="1" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3375,17 +3761,29 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>60</v>
+      <c r="A62" s="5" t="inlineStr">
+        <is>
+          <t>061</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>HDMI BYPASS HDCP Out：None-None</t>
+          <t>HDMI BYPASS HDCP Out_None-None</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3393,12 +3791,7 @@
           <t>VideoTestSuite.py -t 1080p60 -s bypass -c YCbCr444 --outcolor YCbCr444 --hdcpout None --hdcpin None --skip protocal</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E62" s="2" t="inlineStr">
+      <c r="E62" s="1" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -3415,12 +3808,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3428,14 +3821,26 @@
           <t>PASS</t>
         </is>
       </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>60</v>
+      <c r="A63" s="5" t="inlineStr">
+        <is>
+          <t>062</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>HDMI BYPASS HDCP Out：None-1.4</t>
+          <t>HDMI BYPASS HDCP Out_None-1.4</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3443,12 +3848,7 @@
           <t>VideoTestSuite.py -t 1080p60 -s bypass -c YCbCr444 --outcolor YCbCr444 --hdcpout None --hdcpin 14 --skip protocal</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E63" s="2" t="inlineStr">
+      <c r="E63" s="1" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -3465,12 +3865,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3478,14 +3878,26 @@
           <t>PASS</t>
         </is>
       </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>60</v>
+      <c r="A64" s="5" t="inlineStr">
+        <is>
+          <t>063</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>HDMI BYPASS HDCP Out：None-2.2</t>
+          <t>HDMI BYPASS HDCP Out_None-2.2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3493,12 +3905,7 @@
           <t>VideoTestSuite.py -t 1080p60 -s bypass -c YCbCr444 --outcolor YCbCr444 --hdcpout None --hdcpin 22 --skip protocal</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E64" s="2" t="inlineStr">
+      <c r="E64" s="1" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -3515,12 +3922,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -3528,14 +3935,26 @@
           <t>PASS</t>
         </is>
       </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>60</v>
+      <c r="A65" s="5" t="inlineStr">
+        <is>
+          <t>064</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>HDMI BYPASS HDCP Out：1.4-None</t>
+          <t>HDMI BYPASS HDCP Out_1.4-None</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3543,12 +3962,7 @@
           <t>VideoTestSuite.py -t 1080p60 -s bypass -c YCbCr444 --outcolor YCbCr444 --hdcpout 14 --hdcpin None --skip protocal</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E65" s="2" t="inlineStr">
+      <c r="E65" s="1" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
@@ -3575,17 +3989,29 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>60</v>
+      <c r="A66" s="5" t="inlineStr">
+        <is>
+          <t>065</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>HDMI BYPASS HDCP Out：1.4-1.4</t>
+          <t>HDMI BYPASS HDCP Out_1.4-1.4</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3593,12 +4019,7 @@
           <t>VideoTestSuite.py -t 1080p60 -s bypass -c YCbCr444 --outcolor YCbCr444 --hdcpout 14 --hdcpin 14 --skip protocal</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E66" s="2" t="inlineStr">
+      <c r="E66" s="1" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -3615,7 +4036,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3628,14 +4049,26 @@
           <t>PASS</t>
         </is>
       </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>60</v>
+      <c r="A67" s="5" t="inlineStr">
+        <is>
+          <t>066</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>HDMI BYPASS HDCP Out：1.4-2.2</t>
+          <t>HDMI BYPASS HDCP Out_1.4-2.2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3643,12 +4076,7 @@
           <t>VideoTestSuite.py -t 1080p60 -s bypass -c YCbCr444 --outcolor YCbCr444 --hdcpout 14 --hdcpin 22 --skip protocal</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E67" s="2" t="inlineStr">
+      <c r="E67" s="1" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -3665,27 +4093,39 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
           <t>FAIL</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>60</v>
+      <c r="A68" s="5" t="inlineStr">
+        <is>
+          <t>067</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>HDMI BYPASS HDCP Out：2.2(0)-None</t>
+          <t>HDMI BYPASS HDCP Out_2.2(0)-None</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3693,19 +4133,14 @@
           <t>VideoTestSuite.py -t 1080p60 -s bypass -c YCbCr444 --outcolor YCbCr444 --hdcpout 220 --hdcpin None --skip protocal</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E68" s="2" t="inlineStr">
+      <c r="E68" s="1" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3720,22 +4155,34 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>60</v>
+      <c r="A69" s="5" t="inlineStr">
+        <is>
+          <t>068</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>HDMI BYPASS HDCP Out：2.2(0)-1.4</t>
+          <t>HDMI BYPASS HDCP Out_2.2(0)-1.4</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3743,17 +4190,7 @@
           <t>VideoTestSuite.py -t 1080p60 -s bypass -c YCbCr444 --outcolor YCbCr444 --hdcpout 220 --hdcpin 14 --skip protocal</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E69" s="2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
+      <c r="E69" s="1" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -3765,12 +4202,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -3778,14 +4215,26 @@
           <t>PASS</t>
         </is>
       </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>60</v>
+      <c r="A70" s="5" t="inlineStr">
+        <is>
+          <t>069</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>HDMI BYPASS HDCP Out：2.2(0)-2.2</t>
+          <t>HDMI BYPASS HDCP Out_2.2(0)-2.2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3793,17 +4242,7 @@
           <t>VideoTestSuite.py -t 1080p60 -s bypass -c YCbCr444 --outcolor YCbCr444 --hdcpout 220 --hdcpin 22 --skip protocal</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E70" s="2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
+      <c r="E70" s="1" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -3815,12 +4254,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -3828,14 +4267,26 @@
           <t>PASS</t>
         </is>
       </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>60</v>
+      <c r="A71" s="5" t="inlineStr">
+        <is>
+          <t>070</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>HDMI BYPASS HDCP Out：2.2(1)-None</t>
+          <t>HDMI BYPASS HDCP Out_2.2(1)-None</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3843,17 +4294,7 @@
           <t>VideoTestSuite.py -t 1080p60 -s bypass -c YCbCr444 --outcolor YCbCr444 --hdcpout 221 --hdcpin None --skip protocal</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E71" s="2" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
+      <c r="E71" s="1" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
@@ -3870,22 +4311,34 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>60</v>
+      <c r="A72" s="5" t="inlineStr">
+        <is>
+          <t>071</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>HDMI BYPASS HDCP Out：2.2(1)-1.4</t>
+          <t>HDMI BYPASS HDCP Out_2.2(1)-1.4</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3893,17 +4346,7 @@
           <t>VideoTestSuite.py -t 1080p60 -s bypass -c YCbCr444 --outcolor YCbCr444 --hdcpout 221 --hdcpin 14 --skip protocal</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E72" s="2" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
+      <c r="E72" s="1" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
@@ -3920,22 +4363,34 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>60</v>
+      <c r="A73" s="5" t="inlineStr">
+        <is>
+          <t>072</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>HDMI BYPASS HDCP Out：2.2(1)-2.2</t>
+          <t>HDMI BYPASS HDCP Out_2.2(1)-2.2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3943,17 +4398,7 @@
           <t>VideoTestSuite.py -t 1080p60 -s bypass -c YCbCr444 --outcolor YCbCr444 --hdcpout 221 --hdcpin 22 --skip protocal</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E73" s="2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
+      <c r="E73" s="1" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -3965,12 +4410,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -3978,14 +4423,26 @@
           <t>PASS</t>
         </is>
       </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>61</v>
+      <c r="A74" s="5" t="inlineStr">
+        <is>
+          <t>073</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>AspectRation:Stretch</t>
+          <t>AspectRation_Stretch</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3993,22 +4450,7 @@
           <t>VideoTestSuite.py -t 2160p30 -s 1080p60 --ar stretch --skip protocal</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E74" s="2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
+      <c r="E74" s="1" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -4028,14 +4470,26 @@
           <t>PASS</t>
         </is>
       </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>62</v>
+      <c r="A75" s="5" t="inlineStr">
+        <is>
+          <t>074</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>AspectRation:Maintain</t>
+          <t>AspectRation_Maintain</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4043,22 +4497,7 @@
           <t>VideoTestSuite.py -t 1080p60 -s 2160p30 --ar maintain --skip protocal</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E75" s="2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
+      <c r="E75" s="1" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -4078,14 +4517,26 @@
           <t>PASS</t>
         </is>
       </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>63</v>
+      <c r="A76" s="5" t="inlineStr">
+        <is>
+          <t>075</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Color Deepth:30 bit</t>
+          <t>Color Deepth_30 bit</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4093,44 +4544,41 @@
           <t>VideoTestSuite.py -t 1080p60 -s bypass -c YCbCr444 -d 10 --outcolor YCbCr444 --skip protocal</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E76" s="2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
+      <c r="E76" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>64</v>
+      <c r="A77" s="5" t="inlineStr">
+        <is>
+          <t>076</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Color Deepth:36 bit</t>
+          <t>Color Deepth_36 bit</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4138,40 +4586,37 @@
           <t>VideoTestSuite.py -t 1080p60 -s bypass -c YCbCr444 -d 12 --outcolor YCbCr444 --skip protocal</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E77" s="2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
+      <c r="E77" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>65</v>
+      <c r="A78" s="5" t="inlineStr">
+        <is>
+          <t>077</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -4183,7 +4628,7 @@
           <t>VideoTestSuite.py -t random -s random -r 100 --skip protocal</t>
         </is>
       </c>
-      <c r="E78" s="2" t="inlineStr">
+      <c r="E78" s="1" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
